--- a/data_reeksamen23.xlsx
+++ b/data_reeksamen23.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markushaldnielsen/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2F8976-2113-B349-BD47-50E8BA9DBC3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A20957B-DEC9-AB45-8F0A-3D2B78DCAE6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Ark1" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -391,26 +390,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D16BD03-FA53-6045-9C65-53F2F63E85BB}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J1031"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
